--- a/SchedulingData/dynamic15/pso/scheduling1_7.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_7.xlsx
@@ -462,363 +462,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>83.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>25.32</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61.2</v>
+        <v>40.8</v>
       </c>
       <c r="E3" t="n">
-        <v>25.08</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.16</v>
+        <v>61.22</v>
       </c>
       <c r="E4" t="n">
-        <v>26.744</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>104.76</v>
+        <v>162.64</v>
       </c>
       <c r="E5" t="n">
-        <v>22.344</v>
+        <v>22.956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61.22</v>
       </c>
       <c r="D6" t="n">
-        <v>81.31999999999999</v>
+        <v>127.36</v>
       </c>
       <c r="E6" t="n">
-        <v>27.008</v>
+        <v>22.044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>81.31999999999999</v>
+        <v>162.64</v>
       </c>
       <c r="D7" t="n">
-        <v>151.92</v>
+        <v>229.82</v>
       </c>
       <c r="E7" t="n">
-        <v>23.088</v>
+        <v>19.368</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83.5</v>
+        <v>127.36</v>
       </c>
       <c r="D8" t="n">
-        <v>160.02</v>
+        <v>195.26</v>
       </c>
       <c r="E8" t="n">
-        <v>21.768</v>
+        <v>17.364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>151.92</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>218.36</v>
+        <v>90.7</v>
       </c>
       <c r="E9" t="n">
-        <v>19.084</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.22</v>
+        <v>61.2</v>
       </c>
       <c r="E10" t="n">
-        <v>25.968</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>64.16</v>
+        <v>90.7</v>
       </c>
       <c r="D11" t="n">
-        <v>114.98</v>
+        <v>141.76</v>
       </c>
       <c r="E11" t="n">
-        <v>22.792</v>
+        <v>21.104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.22</v>
+        <v>141.76</v>
       </c>
       <c r="D12" t="n">
-        <v>92.12</v>
+        <v>189.64</v>
       </c>
       <c r="E12" t="n">
-        <v>23.108</v>
+        <v>17.456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>229.82</v>
       </c>
       <c r="D13" t="n">
-        <v>52.1</v>
+        <v>271.98</v>
       </c>
       <c r="E13" t="n">
-        <v>27.48</v>
+        <v>16.772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>160.02</v>
+        <v>195.26</v>
       </c>
       <c r="D14" t="n">
-        <v>200.22</v>
+        <v>256.66</v>
       </c>
       <c r="E14" t="n">
-        <v>18.388</v>
+        <v>13.844</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92.12</v>
+        <v>271.98</v>
       </c>
       <c r="D15" t="n">
-        <v>182.22</v>
+        <v>324.36</v>
       </c>
       <c r="E15" t="n">
-        <v>18.188</v>
+        <v>12.664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.1</v>
+        <v>324.36</v>
       </c>
       <c r="D16" t="n">
-        <v>97.2</v>
+        <v>379.22</v>
       </c>
       <c r="E16" t="n">
-        <v>24.1</v>
+        <v>9.808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>218.36</v>
+        <v>189.64</v>
       </c>
       <c r="D17" t="n">
-        <v>263.64</v>
+        <v>231.54</v>
       </c>
       <c r="E17" t="n">
-        <v>15.696</v>
+        <v>15.376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>97.2</v>
+        <v>256.66</v>
       </c>
       <c r="D18" t="n">
-        <v>155.22</v>
+        <v>320.52</v>
       </c>
       <c r="E18" t="n">
-        <v>20.908</v>
+        <v>10.588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>104.76</v>
+        <v>40.8</v>
       </c>
       <c r="D19" t="n">
-        <v>167.24</v>
+        <v>97.7</v>
       </c>
       <c r="E19" t="n">
-        <v>18.236</v>
+        <v>22.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>167.24</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>233.54</v>
+        <v>54.3</v>
       </c>
       <c r="E20" t="n">
-        <v>14.716</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>182.22</v>
+        <v>320.52</v>
       </c>
       <c r="D21" t="n">
-        <v>230.56</v>
+        <v>369.28</v>
       </c>
       <c r="E21" t="n">
-        <v>15.484</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>263.64</v>
+        <v>97.7</v>
       </c>
       <c r="D22" t="n">
-        <v>337.4</v>
+        <v>164.3</v>
       </c>
       <c r="E22" t="n">
-        <v>12.42</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>200.22</v>
+        <v>54.3</v>
       </c>
       <c r="D23" t="n">
-        <v>258.38</v>
+        <v>116.18</v>
       </c>
       <c r="E23" t="n">
-        <v>14.692</v>
+        <v>23.172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>337.4</v>
+        <v>379.22</v>
       </c>
       <c r="D24" t="n">
-        <v>384.12</v>
+        <v>442.18</v>
       </c>
       <c r="E24" t="n">
-        <v>8.388</v>
+        <v>6.112</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>230.56</v>
+        <v>369.28</v>
       </c>
       <c r="D25" t="n">
-        <v>322.26</v>
+        <v>440.48</v>
       </c>
       <c r="E25" t="n">
-        <v>10.924</v>
+        <v>2.352</v>
       </c>
     </row>
     <row r="26">
@@ -922,93 +922,93 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>322.26</v>
+        <v>440.48</v>
       </c>
       <c r="D26" t="n">
-        <v>375.16</v>
+        <v>522.38</v>
       </c>
       <c r="E26" t="n">
-        <v>7.264</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>155.22</v>
+        <v>522.38</v>
       </c>
       <c r="D27" t="n">
-        <v>204.98</v>
+        <v>586.66</v>
       </c>
       <c r="E27" t="n">
-        <v>18.052</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>258.38</v>
+        <v>586.66</v>
       </c>
       <c r="D28" t="n">
-        <v>311.16</v>
+        <v>639.88</v>
       </c>
       <c r="E28" t="n">
-        <v>11.044</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>384.12</v>
+        <v>442.18</v>
       </c>
       <c r="D29" t="n">
-        <v>434.34</v>
+        <v>506.12</v>
       </c>
       <c r="E29" t="n">
-        <v>5.476</v>
+        <v>2.848</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>114.98</v>
+        <v>61.2</v>
       </c>
       <c r="D30" t="n">
-        <v>191.08</v>
+        <v>111.2</v>
       </c>
       <c r="E30" t="n">
-        <v>17.812</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="31">
@@ -1017,150 +1017,150 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>311.16</v>
+        <v>116.18</v>
       </c>
       <c r="D31" t="n">
-        <v>353.06</v>
+        <v>144.18</v>
       </c>
       <c r="E31" t="n">
-        <v>8.964</v>
+        <v>21.012</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>204.98</v>
+        <v>164.3</v>
       </c>
       <c r="D32" t="n">
-        <v>280.26</v>
+        <v>219.48</v>
       </c>
       <c r="E32" t="n">
-        <v>15.104</v>
+        <v>15.592</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>375.16</v>
+        <v>219.48</v>
       </c>
       <c r="D33" t="n">
-        <v>438.62</v>
+        <v>264.58</v>
       </c>
       <c r="E33" t="n">
-        <v>4.528</v>
+        <v>12.212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>191.08</v>
+        <v>231.54</v>
       </c>
       <c r="D34" t="n">
-        <v>232.54</v>
+        <v>294.9</v>
       </c>
       <c r="E34" t="n">
-        <v>14.796</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>438.62</v>
+        <v>111.2</v>
       </c>
       <c r="D35" t="n">
-        <v>517.2</v>
+        <v>162.7</v>
       </c>
       <c r="E35" t="n">
-        <v>1.28</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>517.2</v>
+        <v>506.12</v>
       </c>
       <c r="D36" t="n">
-        <v>601.4400000000001</v>
+        <v>560.2</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>233.54</v>
+        <v>560.2</v>
       </c>
       <c r="D37" t="n">
-        <v>285.54</v>
+        <v>627.12</v>
       </c>
       <c r="E37" t="n">
-        <v>11.636</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>434.34</v>
+        <v>162.7</v>
       </c>
       <c r="D38" t="n">
-        <v>501.22</v>
+        <v>261.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1.888</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>501.22</v>
+        <v>264.58</v>
       </c>
       <c r="D39" t="n">
-        <v>569.34</v>
+        <v>332.08</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>8.552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>280.26</v>
+        <v>639.88</v>
       </c>
       <c r="D40" t="n">
-        <v>341.12</v>
+        <v>688.22</v>
       </c>
       <c r="E40" t="n">
-        <v>11.128</v>
+        <v>20.856</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>341.12</v>
+        <v>627.12</v>
       </c>
       <c r="D41" t="n">
-        <v>374.02</v>
+        <v>685.02</v>
       </c>
       <c r="E41" t="n">
-        <v>8.968</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="42">
@@ -1226,55 +1226,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>569.34</v>
+        <v>332.08</v>
       </c>
       <c r="D42" t="n">
-        <v>643.78</v>
+        <v>377.4</v>
       </c>
       <c r="E42" t="n">
-        <v>26.696</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>374.02</v>
+        <v>144.18</v>
       </c>
       <c r="D43" t="n">
-        <v>427.88</v>
+        <v>203.4</v>
       </c>
       <c r="E43" t="n">
-        <v>5.712</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>232.54</v>
+        <v>203.4</v>
       </c>
       <c r="D44" t="n">
-        <v>269.9</v>
+        <v>279.92</v>
       </c>
       <c r="E44" t="n">
-        <v>12.2</v>
+        <v>13.188</v>
       </c>
     </row>
     <row r="45">
@@ -1283,36 +1283,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>285.54</v>
+        <v>261.5</v>
       </c>
       <c r="D45" t="n">
-        <v>357.48</v>
+        <v>346.58</v>
       </c>
       <c r="E45" t="n">
-        <v>8.512</v>
+        <v>11.492</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>427.88</v>
+        <v>279.92</v>
       </c>
       <c r="D46" t="n">
-        <v>480.06</v>
+        <v>333.68</v>
       </c>
       <c r="E46" t="n">
-        <v>2.124</v>
+        <v>10.452</v>
       </c>
     </row>
     <row r="47">
@@ -1321,93 +1321,93 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>353.06</v>
+        <v>333.68</v>
       </c>
       <c r="D47" t="n">
-        <v>391.86</v>
+        <v>381.48</v>
       </c>
       <c r="E47" t="n">
-        <v>5.724</v>
+        <v>6.812</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>269.9</v>
+        <v>377.4</v>
       </c>
       <c r="D48" t="n">
-        <v>325.38</v>
+        <v>446.8</v>
       </c>
       <c r="E48" t="n">
-        <v>8.792</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>391.86</v>
+        <v>446.8</v>
       </c>
       <c r="D49" t="n">
-        <v>431.24</v>
+        <v>538.64</v>
       </c>
       <c r="E49" t="n">
-        <v>2.916</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>325.38</v>
+        <v>538.64</v>
       </c>
       <c r="D50" t="n">
-        <v>389.32</v>
+        <v>609.26</v>
       </c>
       <c r="E50" t="n">
-        <v>5.528</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>389.32</v>
+        <v>346.58</v>
       </c>
       <c r="D51" t="n">
-        <v>448.64</v>
+        <v>400.86</v>
       </c>
       <c r="E51" t="n">
-        <v>1.736</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="52">
@@ -1416,93 +1416,93 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>448.64</v>
+        <v>685.02</v>
       </c>
       <c r="D52" t="n">
-        <v>536.77</v>
+        <v>736.58</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>23.864</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>431.24</v>
+        <v>400.86</v>
       </c>
       <c r="D53" t="n">
-        <v>492.41</v>
+        <v>445.2</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>492.41</v>
+        <v>294.9</v>
       </c>
       <c r="D54" t="n">
-        <v>562.41</v>
+        <v>348.76</v>
       </c>
       <c r="E54" t="n">
-        <v>26.64</v>
+        <v>9.364000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>357.48</v>
+        <v>381.48</v>
       </c>
       <c r="D55" t="n">
-        <v>471.18</v>
+        <v>452.9</v>
       </c>
       <c r="E55" t="n">
-        <v>3.712</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>562.41</v>
+        <v>348.76</v>
       </c>
       <c r="D56" t="n">
-        <v>624.8099999999999</v>
+        <v>406.16</v>
       </c>
       <c r="E56" t="n">
-        <v>23</v>
+        <v>6.244</v>
       </c>
     </row>
     <row r="57">
@@ -1511,74 +1511,74 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>601.4400000000001</v>
+        <v>688.22</v>
       </c>
       <c r="D57" t="n">
-        <v>637.5599999999999</v>
+        <v>749.64</v>
       </c>
       <c r="E57" t="n">
-        <v>27.088</v>
+        <v>16.824</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>624.8099999999999</v>
+        <v>445.2</v>
       </c>
       <c r="D58" t="n">
-        <v>677.3099999999999</v>
+        <v>490.98</v>
       </c>
       <c r="E58" t="n">
-        <v>19.88</v>
+        <v>1.432</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>536.77</v>
+        <v>490.98</v>
       </c>
       <c r="D59" t="n">
-        <v>574.97</v>
+        <v>589.42</v>
       </c>
       <c r="E59" t="n">
-        <v>26.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>574.97</v>
+        <v>406.16</v>
       </c>
       <c r="D60" t="n">
-        <v>653.95</v>
+        <v>476.88</v>
       </c>
       <c r="E60" t="n">
-        <v>23.072</v>
+        <v>3.252</v>
       </c>
     </row>
   </sheetData>
